--- a/MejorGasto_Indicadores_2022-02-17.xlsx
+++ b/MejorGasto_Indicadores_2022-02-17.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="61">
-  <si>
-    <t>Sub4_4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="59">
+  <si>
+    <t>Sub2_4</t>
   </si>
   <si>
     <t>colsem</t>
@@ -82,7 +82,7 @@
     <t>var7</t>
   </si>
   <si>
-    <t>var_multiple_6_salida_2_suma</t>
+    <t>var_multiple_6_salida_2_s</t>
   </si>
   <si>
     <t>var_multiple_6_salida_3_recuento</t>
@@ -122,12 +122,6 @@
   </si>
   <si>
     <t>Sub1_4</t>
-  </si>
-  <si>
-    <t>Sub2_4</t>
-  </si>
-  <si>
-    <t>Sub3_4</t>
   </si>
   <si>
     <t>66) Del 07/02 al 13/02</t>
@@ -554,13 +548,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,91 +663,85 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:38">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
       </c>
       <c r="L2">
         <v>20220211</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" t="s">
-        <v>55</v>
-      </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
         <v>1</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
         <v>20220211</v>
       </c>
       <c r="AA2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -768,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -782,67 +770,61 @@
       <c r="AJ2">
         <v>0</v>
       </c>
-      <c r="AK2">
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3">
         <v>7</v>
       </c>
-      <c r="AL2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
-      <c r="A3">
-        <v>1</v>
-      </c>
       <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
       </c>
       <c r="L3">
         <v>20220211</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" t="s">
         <v>52</v>
       </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>54</v>
-      </c>
-      <c r="R3" t="s">
-        <v>56</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -866,7 +848,7 @@
         <v>20220211</v>
       </c>
       <c r="AA3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -895,67 +877,61 @@
       <c r="AJ3">
         <v>0</v>
       </c>
-      <c r="AK3">
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4">
         <v>7</v>
       </c>
-      <c r="AL3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38">
-      <c r="A4">
-        <v>1</v>
-      </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
       </c>
       <c r="L4">
         <v>20220211</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" t="s">
         <v>52</v>
       </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>54</v>
-      </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S4">
         <v>4</v>
@@ -979,7 +955,7 @@
         <v>20220211</v>
       </c>
       <c r="AA4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1008,67 +984,61 @@
       <c r="AJ4">
         <v>0</v>
       </c>
-      <c r="AK4">
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5">
         <v>7</v>
       </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
-      <c r="A5">
-        <v>1</v>
-      </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>41</v>
       </c>
-      <c r="G5" t="s">
+      <c r="K5" t="s">
         <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
       </c>
       <c r="L5">
         <v>20220211</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" t="s">
         <v>52</v>
       </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>54</v>
-      </c>
       <c r="R5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S5">
         <v>4</v>
@@ -1092,7 +1062,7 @@
         <v>20220211</v>
       </c>
       <c r="AA5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1121,67 +1091,61 @@
       <c r="AJ5">
         <v>0</v>
       </c>
-      <c r="AK5">
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6">
         <v>7</v>
       </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38">
-      <c r="A6">
-        <v>1</v>
-      </c>
       <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" t="s">
+      <c r="K6" t="s">
         <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" t="s">
-        <v>44</v>
       </c>
       <c r="L6">
         <v>20220211</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" t="s">
         <v>52</v>
       </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>54</v>
-      </c>
       <c r="R6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S6">
         <v>4</v>
@@ -1205,7 +1169,7 @@
         <v>20220211</v>
       </c>
       <c r="AA6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1234,67 +1198,61 @@
       <c r="AJ6">
         <v>0</v>
       </c>
-      <c r="AK6">
-        <v>7</v>
-      </c>
-      <c r="AL6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:36">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" t="s">
         <v>41</v>
       </c>
-      <c r="G7" t="s">
+      <c r="K7" t="s">
         <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" t="s">
-        <v>44</v>
       </c>
       <c r="L7">
         <v>20220211</v>
       </c>
       <c r="M7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" t="s">
         <v>50</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" t="s">
         <v>52</v>
       </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>54</v>
-      </c>
       <c r="R7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S7">
         <v>4</v>
@@ -1318,10 +1276,10 @@
         <v>20220211</v>
       </c>
       <c r="Z7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7" t="s">
         <v>58</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>60</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1350,67 +1308,61 @@
       <c r="AJ7">
         <v>7</v>
       </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:36">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
         <v>41</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
+      <c r="K8" t="s">
         <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" t="s">
-        <v>44</v>
       </c>
       <c r="L8">
         <v>20220211</v>
       </c>
       <c r="M8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" t="s">
         <v>51</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>54</v>
-      </c>
       <c r="R8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S8">
         <v>4</v>
@@ -1434,10 +1386,10 @@
         <v>20220211</v>
       </c>
       <c r="Z8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AA8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1466,67 +1418,61 @@
       <c r="AJ8">
         <v>0</v>
       </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:36">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>41</v>
       </c>
-      <c r="G9" t="s">
+      <c r="K9" t="s">
         <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" t="s">
-        <v>44</v>
       </c>
       <c r="L9">
         <v>20220211</v>
       </c>
       <c r="M9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" t="s">
         <v>51</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" t="s">
         <v>52</v>
       </c>
-      <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>54</v>
-      </c>
       <c r="R9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S9">
         <v>4</v>
@@ -1550,10 +1496,10 @@
         <v>20220211</v>
       </c>
       <c r="Z9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9" t="s">
         <v>58</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>60</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1581,12 +1527,6 @@
       </c>
       <c r="AJ9">
         <v>7</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
